--- a/stage_1/Pivot_Table_Calculations/Pivot_table_calculations.xlsx
+++ b/stage_1/Pivot_Table_Calculations/Pivot_table_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Pivot_Table_Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CE8B0B-1F9E-4C9C-84B6-93ED82A8A054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4D2515-6EED-4813-A396-5A576EE276A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>Employee</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Grand Total</t>
   </si>
   <si>
+    <t>Sum of Salary</t>
+  </si>
+  <si>
     <t>Average of Salary</t>
   </si>
   <si>
@@ -92,6 +95,12 @@
   </si>
   <si>
     <t>10% Commission</t>
+  </si>
+  <si>
+    <t>Rank employees by total sales</t>
+  </si>
+  <si>
+    <t>Difference in salary compared to the highest-paid employee</t>
   </si>
 </sst>
 </file>
@@ -154,7 +163,136 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="56">
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="172" formatCode="0.00000"/>
     </dxf>
@@ -210,7 +348,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PC" refreshedDate="45919.516569097221" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{2F472172-052B-4C2F-A45E-F57B63D026E6}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E10" sheet="data"/>
+    <worksheetSource ref="A1:E9" sheet="data"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Employee" numFmtId="0">
@@ -318,6 +456,173 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{586A346D-667A-4841-9ECA-FBC1C4BC3747}" name="PivotTable6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D14:E20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Salary" fld="2" showDataAs="difference" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F7BEF76-1314-47B9-A2E4-5EE8F11F5A1A}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A14:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField pivotShowAs="rankDescending"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FE1AF7C-091C-4563-8639-86FDE49D364C}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:K9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -384,10 +689,10 @@
     <dataField name="10% Commission" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="48">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -403,7 +708,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{062E0B04-6630-4FF7-9E35-85157535CEE7}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -461,10 +766,10 @@
     <dataField name="Sum of Sales" fld="3" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="6">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="50">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -473,14 +778,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="51">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="52">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -496,7 +801,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{433D829C-0942-43E2-94F3-CE7D48FFBCC2}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -542,17 +847,17 @@
     <dataField name="Average of Salary" fld="2" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="12">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="54">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="53">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -831,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -947,69 +1252,52 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
-        <v>45112</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
-        <v>45114</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>130000</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1">
         <v>45142</v>
       </c>
     </row>
@@ -1021,18 +1309,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE4186B-BBAF-4607-9B25-8C5EFB958CEE}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
@@ -1040,13 +1328,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1054,22 +1342,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1203,6 +1491,106 @@
       <c r="K9" s="7">
         <v>18.600000000000001</v>
       </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7">
+        <v>-210000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="7">
+        <v>-160000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7">
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7">
+        <v>-120000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="D20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stage_1/Pivot_Table_Calculations/Pivot_table_calculations.xlsx
+++ b/stage_1/Pivot_Table_Calculations/Pivot_table_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Pivot_Table_Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4D2515-6EED-4813-A396-5A576EE276A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22487B25-21BF-44AB-878C-EC4864834983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,28 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Pivot_table" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="NativeTimeline_Date">#N/A</definedName>
+    <definedName name="Slicer_Department">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId4"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
+      <x15:timelineCacheRefs>
+        <x15:timelineCacheRef r:id="rId5"/>
+      </x15:timelineCacheRefs>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -29,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>Employee</t>
   </si>
@@ -102,6 +119,9 @@
   <si>
     <t>Difference in salary compared to the highest-paid employee</t>
   </si>
+  <si>
+    <t>Slicer and Timeline</t>
+  </si>
 </sst>
 </file>
 
@@ -163,7 +183,229 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="130">
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="172" formatCode="0.00000"/>
     </dxf>
@@ -345,12 +587,172 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Department">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C93548-4D82-9141-265E-47AB3ACFAEC3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Department"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7664450" y="2381251"/>
+              <a:ext cx="1238250" cy="1485900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Date">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8611EDCC-1AA8-AA60-FB10-355244571ABB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Date"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9036050" y="2413000"/>
+              <a:ext cx="2603500" cy="1371600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Timeline: Works in Excel 2013 or higher. Do not move or resize.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PC" refreshedDate="45919.516569097221" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{2F472172-052B-4C2F-A45E-F57B63D026E6}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E9" sheet="data"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="8">
     <cacheField name="Employee" numFmtId="0">
       <sharedItems count="5">
         <s v="Tola James"/>
@@ -369,19 +771,442 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Salary" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100000" maxValue="180000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100000" maxValue="180000" count="5">
+        <n v="120000"/>
+        <n v="150000"/>
+        <n v="100000"/>
+        <n v="180000"/>
+        <n v="130000"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Sales" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="30"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="30" count="9">
+        <n v="12"/>
+        <n v="18"/>
+        <n v="25"/>
+        <n v="20"/>
+        <n v="15"/>
+        <n v="22"/>
+        <n v="30"/>
+        <n v="28"/>
+        <n v="16"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-05-01T00:00:00" maxDate="2023-08-05T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-05-01T00:00:00" maxDate="2023-08-05T00:00:00" count="9">
+        <d v="2023-05-01T00:00:00"/>
+        <d v="2023-05-03T00:00:00"/>
+        <d v="2023-05-04T00:00:00"/>
+        <d v="2023-06-01T00:00:00"/>
+        <d v="2023-06-03T00:00:00"/>
+        <d v="2023-07-05T00:00:00"/>
+        <d v="2023-07-07T00:00:00"/>
+        <d v="2023-08-01T00:00:00"/>
+        <d v="2023-08-04T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="7"/>
     </cacheField>
     <cacheField name="Commission" numFmtId="0" formula="Sales * 0.1" databaseField="0"/>
+    <cacheField name="Days (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="4">
+        <rangePr groupBy="days" startDate="2023-05-01T00:00:00" endDate="2023-08-05T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;5/1/2023"/>
+          <s v="1-Jan"/>
+          <s v="2-Jan"/>
+          <s v="3-Jan"/>
+          <s v="4-Jan"/>
+          <s v="5-Jan"/>
+          <s v="6-Jan"/>
+          <s v="7-Jan"/>
+          <s v="8-Jan"/>
+          <s v="9-Jan"/>
+          <s v="10-Jan"/>
+          <s v="11-Jan"/>
+          <s v="12-Jan"/>
+          <s v="13-Jan"/>
+          <s v="14-Jan"/>
+          <s v="15-Jan"/>
+          <s v="16-Jan"/>
+          <s v="17-Jan"/>
+          <s v="18-Jan"/>
+          <s v="19-Jan"/>
+          <s v="20-Jan"/>
+          <s v="21-Jan"/>
+          <s v="22-Jan"/>
+          <s v="23-Jan"/>
+          <s v="24-Jan"/>
+          <s v="25-Jan"/>
+          <s v="26-Jan"/>
+          <s v="27-Jan"/>
+          <s v="28-Jan"/>
+          <s v="29-Jan"/>
+          <s v="30-Jan"/>
+          <s v="31-Jan"/>
+          <s v="1-Feb"/>
+          <s v="2-Feb"/>
+          <s v="3-Feb"/>
+          <s v="4-Feb"/>
+          <s v="5-Feb"/>
+          <s v="6-Feb"/>
+          <s v="7-Feb"/>
+          <s v="8-Feb"/>
+          <s v="9-Feb"/>
+          <s v="10-Feb"/>
+          <s v="11-Feb"/>
+          <s v="12-Feb"/>
+          <s v="13-Feb"/>
+          <s v="14-Feb"/>
+          <s v="15-Feb"/>
+          <s v="16-Feb"/>
+          <s v="17-Feb"/>
+          <s v="18-Feb"/>
+          <s v="19-Feb"/>
+          <s v="20-Feb"/>
+          <s v="21-Feb"/>
+          <s v="22-Feb"/>
+          <s v="23-Feb"/>
+          <s v="24-Feb"/>
+          <s v="25-Feb"/>
+          <s v="26-Feb"/>
+          <s v="27-Feb"/>
+          <s v="28-Feb"/>
+          <s v="29-Feb"/>
+          <s v="1-Mar"/>
+          <s v="2-Mar"/>
+          <s v="3-Mar"/>
+          <s v="4-Mar"/>
+          <s v="5-Mar"/>
+          <s v="6-Mar"/>
+          <s v="7-Mar"/>
+          <s v="8-Mar"/>
+          <s v="9-Mar"/>
+          <s v="10-Mar"/>
+          <s v="11-Mar"/>
+          <s v="12-Mar"/>
+          <s v="13-Mar"/>
+          <s v="14-Mar"/>
+          <s v="15-Mar"/>
+          <s v="16-Mar"/>
+          <s v="17-Mar"/>
+          <s v="18-Mar"/>
+          <s v="19-Mar"/>
+          <s v="20-Mar"/>
+          <s v="21-Mar"/>
+          <s v="22-Mar"/>
+          <s v="23-Mar"/>
+          <s v="24-Mar"/>
+          <s v="25-Mar"/>
+          <s v="26-Mar"/>
+          <s v="27-Mar"/>
+          <s v="28-Mar"/>
+          <s v="29-Mar"/>
+          <s v="30-Mar"/>
+          <s v="31-Mar"/>
+          <s v="1-Apr"/>
+          <s v="2-Apr"/>
+          <s v="3-Apr"/>
+          <s v="4-Apr"/>
+          <s v="5-Apr"/>
+          <s v="6-Apr"/>
+          <s v="7-Apr"/>
+          <s v="8-Apr"/>
+          <s v="9-Apr"/>
+          <s v="10-Apr"/>
+          <s v="11-Apr"/>
+          <s v="12-Apr"/>
+          <s v="13-Apr"/>
+          <s v="14-Apr"/>
+          <s v="15-Apr"/>
+          <s v="16-Apr"/>
+          <s v="17-Apr"/>
+          <s v="18-Apr"/>
+          <s v="19-Apr"/>
+          <s v="20-Apr"/>
+          <s v="21-Apr"/>
+          <s v="22-Apr"/>
+          <s v="23-Apr"/>
+          <s v="24-Apr"/>
+          <s v="25-Apr"/>
+          <s v="26-Apr"/>
+          <s v="27-Apr"/>
+          <s v="28-Apr"/>
+          <s v="29-Apr"/>
+          <s v="30-Apr"/>
+          <s v="1-May"/>
+          <s v="2-May"/>
+          <s v="3-May"/>
+          <s v="4-May"/>
+          <s v="5-May"/>
+          <s v="6-May"/>
+          <s v="7-May"/>
+          <s v="8-May"/>
+          <s v="9-May"/>
+          <s v="10-May"/>
+          <s v="11-May"/>
+          <s v="12-May"/>
+          <s v="13-May"/>
+          <s v="14-May"/>
+          <s v="15-May"/>
+          <s v="16-May"/>
+          <s v="17-May"/>
+          <s v="18-May"/>
+          <s v="19-May"/>
+          <s v="20-May"/>
+          <s v="21-May"/>
+          <s v="22-May"/>
+          <s v="23-May"/>
+          <s v="24-May"/>
+          <s v="25-May"/>
+          <s v="26-May"/>
+          <s v="27-May"/>
+          <s v="28-May"/>
+          <s v="29-May"/>
+          <s v="30-May"/>
+          <s v="31-May"/>
+          <s v="1-Jun"/>
+          <s v="2-Jun"/>
+          <s v="3-Jun"/>
+          <s v="4-Jun"/>
+          <s v="5-Jun"/>
+          <s v="6-Jun"/>
+          <s v="7-Jun"/>
+          <s v="8-Jun"/>
+          <s v="9-Jun"/>
+          <s v="10-Jun"/>
+          <s v="11-Jun"/>
+          <s v="12-Jun"/>
+          <s v="13-Jun"/>
+          <s v="14-Jun"/>
+          <s v="15-Jun"/>
+          <s v="16-Jun"/>
+          <s v="17-Jun"/>
+          <s v="18-Jun"/>
+          <s v="19-Jun"/>
+          <s v="20-Jun"/>
+          <s v="21-Jun"/>
+          <s v="22-Jun"/>
+          <s v="23-Jun"/>
+          <s v="24-Jun"/>
+          <s v="25-Jun"/>
+          <s v="26-Jun"/>
+          <s v="27-Jun"/>
+          <s v="28-Jun"/>
+          <s v="29-Jun"/>
+          <s v="30-Jun"/>
+          <s v="1-Jul"/>
+          <s v="2-Jul"/>
+          <s v="3-Jul"/>
+          <s v="4-Jul"/>
+          <s v="5-Jul"/>
+          <s v="6-Jul"/>
+          <s v="7-Jul"/>
+          <s v="8-Jul"/>
+          <s v="9-Jul"/>
+          <s v="10-Jul"/>
+          <s v="11-Jul"/>
+          <s v="12-Jul"/>
+          <s v="13-Jul"/>
+          <s v="14-Jul"/>
+          <s v="15-Jul"/>
+          <s v="16-Jul"/>
+          <s v="17-Jul"/>
+          <s v="18-Jul"/>
+          <s v="19-Jul"/>
+          <s v="20-Jul"/>
+          <s v="21-Jul"/>
+          <s v="22-Jul"/>
+          <s v="23-Jul"/>
+          <s v="24-Jul"/>
+          <s v="25-Jul"/>
+          <s v="26-Jul"/>
+          <s v="27-Jul"/>
+          <s v="28-Jul"/>
+          <s v="29-Jul"/>
+          <s v="30-Jul"/>
+          <s v="31-Jul"/>
+          <s v="1-Aug"/>
+          <s v="2-Aug"/>
+          <s v="3-Aug"/>
+          <s v="4-Aug"/>
+          <s v="5-Aug"/>
+          <s v="6-Aug"/>
+          <s v="7-Aug"/>
+          <s v="8-Aug"/>
+          <s v="9-Aug"/>
+          <s v="10-Aug"/>
+          <s v="11-Aug"/>
+          <s v="12-Aug"/>
+          <s v="13-Aug"/>
+          <s v="14-Aug"/>
+          <s v="15-Aug"/>
+          <s v="16-Aug"/>
+          <s v="17-Aug"/>
+          <s v="18-Aug"/>
+          <s v="19-Aug"/>
+          <s v="20-Aug"/>
+          <s v="21-Aug"/>
+          <s v="22-Aug"/>
+          <s v="23-Aug"/>
+          <s v="24-Aug"/>
+          <s v="25-Aug"/>
+          <s v="26-Aug"/>
+          <s v="27-Aug"/>
+          <s v="28-Aug"/>
+          <s v="29-Aug"/>
+          <s v="30-Aug"/>
+          <s v="31-Aug"/>
+          <s v="1-Sep"/>
+          <s v="2-Sep"/>
+          <s v="3-Sep"/>
+          <s v="4-Sep"/>
+          <s v="5-Sep"/>
+          <s v="6-Sep"/>
+          <s v="7-Sep"/>
+          <s v="8-Sep"/>
+          <s v="9-Sep"/>
+          <s v="10-Sep"/>
+          <s v="11-Sep"/>
+          <s v="12-Sep"/>
+          <s v="13-Sep"/>
+          <s v="14-Sep"/>
+          <s v="15-Sep"/>
+          <s v="16-Sep"/>
+          <s v="17-Sep"/>
+          <s v="18-Sep"/>
+          <s v="19-Sep"/>
+          <s v="20-Sep"/>
+          <s v="21-Sep"/>
+          <s v="22-Sep"/>
+          <s v="23-Sep"/>
+          <s v="24-Sep"/>
+          <s v="25-Sep"/>
+          <s v="26-Sep"/>
+          <s v="27-Sep"/>
+          <s v="28-Sep"/>
+          <s v="29-Sep"/>
+          <s v="30-Sep"/>
+          <s v="1-Oct"/>
+          <s v="2-Oct"/>
+          <s v="3-Oct"/>
+          <s v="4-Oct"/>
+          <s v="5-Oct"/>
+          <s v="6-Oct"/>
+          <s v="7-Oct"/>
+          <s v="8-Oct"/>
+          <s v="9-Oct"/>
+          <s v="10-Oct"/>
+          <s v="11-Oct"/>
+          <s v="12-Oct"/>
+          <s v="13-Oct"/>
+          <s v="14-Oct"/>
+          <s v="15-Oct"/>
+          <s v="16-Oct"/>
+          <s v="17-Oct"/>
+          <s v="18-Oct"/>
+          <s v="19-Oct"/>
+          <s v="20-Oct"/>
+          <s v="21-Oct"/>
+          <s v="22-Oct"/>
+          <s v="23-Oct"/>
+          <s v="24-Oct"/>
+          <s v="25-Oct"/>
+          <s v="26-Oct"/>
+          <s v="27-Oct"/>
+          <s v="28-Oct"/>
+          <s v="29-Oct"/>
+          <s v="30-Oct"/>
+          <s v="31-Oct"/>
+          <s v="1-Nov"/>
+          <s v="2-Nov"/>
+          <s v="3-Nov"/>
+          <s v="4-Nov"/>
+          <s v="5-Nov"/>
+          <s v="6-Nov"/>
+          <s v="7-Nov"/>
+          <s v="8-Nov"/>
+          <s v="9-Nov"/>
+          <s v="10-Nov"/>
+          <s v="11-Nov"/>
+          <s v="12-Nov"/>
+          <s v="13-Nov"/>
+          <s v="14-Nov"/>
+          <s v="15-Nov"/>
+          <s v="16-Nov"/>
+          <s v="17-Nov"/>
+          <s v="18-Nov"/>
+          <s v="19-Nov"/>
+          <s v="20-Nov"/>
+          <s v="21-Nov"/>
+          <s v="22-Nov"/>
+          <s v="23-Nov"/>
+          <s v="24-Nov"/>
+          <s v="25-Nov"/>
+          <s v="26-Nov"/>
+          <s v="27-Nov"/>
+          <s v="28-Nov"/>
+          <s v="29-Nov"/>
+          <s v="30-Nov"/>
+          <s v="1-Dec"/>
+          <s v="2-Dec"/>
+          <s v="3-Dec"/>
+          <s v="4-Dec"/>
+          <s v="5-Dec"/>
+          <s v="6-Dec"/>
+          <s v="7-Dec"/>
+          <s v="8-Dec"/>
+          <s v="9-Dec"/>
+          <s v="10-Dec"/>
+          <s v="11-Dec"/>
+          <s v="12-Dec"/>
+          <s v="13-Dec"/>
+          <s v="14-Dec"/>
+          <s v="15-Dec"/>
+          <s v="16-Dec"/>
+          <s v="17-Dec"/>
+          <s v="18-Dec"/>
+          <s v="19-Dec"/>
+          <s v="20-Dec"/>
+          <s v="21-Dec"/>
+          <s v="22-Dec"/>
+          <s v="23-Dec"/>
+          <s v="24-Dec"/>
+          <s v="25-Dec"/>
+          <s v="26-Dec"/>
+          <s v="27-Dec"/>
+          <s v="28-Dec"/>
+          <s v="29-Dec"/>
+          <s v="30-Dec"/>
+          <s v="31-Dec"/>
+          <s v="&gt;8/5/2023"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Months (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="4">
+        <rangePr groupBy="months" startDate="2023-05-01T00:00:00" endDate="2023-08-05T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;5/1/2023"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;8/5/2023"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1439609561"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -392,73 +1217,577 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="120000"/>
-    <n v="12"/>
-    <d v="2023-05-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="150000"/>
-    <n v="18"/>
-    <d v="2023-05-03T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="100000"/>
-    <n v="25"/>
-    <d v="2023-05-04T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="180000"/>
-    <n v="20"/>
-    <d v="2023-06-01T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="130000"/>
-    <n v="15"/>
-    <d v="2023-06-03T00:00:00"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="120000"/>
-    <n v="22"/>
-    <d v="2023-07-05T00:00:00"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="100000"/>
-    <n v="30"/>
-    <d v="2023-07-07T00:00:00"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="180000"/>
-    <n v="28"/>
-    <d v="2023-08-01T00:00:00"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="130000"/>
-    <n v="16"/>
-    <d v="2023-08-04T00:00:00"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="8"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{586A346D-667A-4841-9ECA-FBC1C4BC3747}" name="PivotTable6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67119E82-2E4C-4227-B37B-072955B4CFD0}" name="PivotTable7" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I14:J20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="73">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{586A346D-667A-4841-9ECA-FBC1C4BC3747}" name="PivotTable6" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D14:E20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+  <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="3"/>
@@ -480,8 +1809,413 @@
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -513,17 +2247,17 @@
     <dataField name="Sum of Salary" fld="2" showDataAs="difference" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="20">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="82">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="78">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -539,10 +2273,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F7BEF76-1314-47B9-A2E4-5EE8F11F5A1A}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F7BEF76-1314-47B9-A2E4-5EE8F11F5A1A}" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A14:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+  <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="3"/>
@@ -564,8 +2298,413 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -603,10 +2742,10 @@
     </dataField>
   </dataFields>
   <formats count="2">
-    <format dxfId="41">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="116">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -622,10 +2761,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FE1AF7C-091C-4563-8639-86FDE49D364C}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FE1AF7C-091C-4563-8639-86FDE49D364C}" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:K9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+  <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="3"/>
@@ -647,8 +2786,413 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -689,10 +3233,10 @@
     <dataField name="10% Commission" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="47">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="122">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -708,10 +3252,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{062E0B04-6630-4FF7-9E35-85157535CEE7}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{062E0B04-6630-4FF7-9E35-85157535CEE7}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+  <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="3"/>
@@ -733,8 +3277,413 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -766,10 +3715,10 @@
     <dataField name="Sum of Sales" fld="3" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="49">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="124">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -778,14 +3727,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="125">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="126">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -801,10 +3750,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{433D829C-0942-43E2-94F3-CE7D48FFBCC2}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{433D829C-0942-43E2-94F3-CE7D48FFBCC2}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+  <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
@@ -817,8 +3766,413 @@
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -847,17 +4201,17 @@
     <dataField name="Average of Salary" fld="2" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="55">
+    <format dxfId="129">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="128">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="127">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -871,6 +4225,30 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Department" xr10:uid="{3D8C0132-C249-4304-8764-706D774C752B}" sourceName="Department">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable7"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1439609561">
+      <items count="4">
+        <i x="3" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Department" xr10:uid="{2B84D3DD-637B-463C-957C-39DD8874C93F}" cache="Slicer_Department" caption="Department" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1134,6 +4512,23 @@
 </a:theme>
 </file>
 
+<file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_Date" xr10:uid="{770B4669-69BA-406A-B86E-BB86A04A150F}" sourceName="Date">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable7"/>
+  </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1439609561" filterType="unknown">
+    <bounds startDate="2023-01-01T00:00:00" endDate="2024-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="Date" xr10:uid="{743D2AB5-D32E-4306-9F3C-FF578EF4B425}" cache="NativeTimeline_Date" caption="Date" level="2" selectionLevel="2" scrollPosition="2023-06-07T00:00:00"/>
+</timelines>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
@@ -1309,24 +4704,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE4186B-BBAF-4607-9B25-8C5EFB958CEE}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1337,7 +4731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +4754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1383,7 +4777,7 @@
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1406,7 +4800,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1429,7 +4823,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1452,7 +4846,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1475,7 +4869,7 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1492,15 +4886,19 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="K12"/>
+      <c r="L12" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1513,8 +4911,14 @@
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1525,8 +4929,14 @@
         <v>10</v>
       </c>
       <c r="E15" s="7"/>
+      <c r="I15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="5">
+        <v>48</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1539,8 +4949,14 @@
       <c r="E16" s="7">
         <v>-210000</v>
       </c>
+      <c r="I16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="5">
+        <v>18</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1553,8 +4969,14 @@
       <c r="E17" s="7">
         <v>-160000</v>
       </c>
+      <c r="I17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="5">
+        <v>55</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1567,8 +4989,14 @@
       <c r="E18" s="7">
         <v>-100000</v>
       </c>
+      <c r="I18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="5">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1581,8 +5009,14 @@
       <c r="E19" s="7">
         <v>-120000</v>
       </c>
+      <c r="I19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="5">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -1591,8 +5025,28 @@
         <v>14</v>
       </c>
       <c r="E20" s="7"/>
+      <c r="I20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="7">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId9"/>
+      </x14:slicerList>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId10"/>
+      </x15:timelineRefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>